--- a/NewProbableCasesOverTimeByCounty/2021-02-13.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-13.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="364">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/12/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/13/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-12</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-13</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1321,6 +1324,7 @@
     <col min="103" max="103" width="12.0" customWidth="true"/>
     <col min="104" max="104" width="12.0" customWidth="true"/>
     <col min="105" max="105" width="12.0" customWidth="true"/>
+    <col min="106" max="106" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1649,10 +1653,13 @@
       <c r="DA3" t="s" s="10">
         <v>106</v>
       </c>
+      <c r="DB3" t="s" s="10">
+        <v>107</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -1965,11 +1972,14 @@
       </c>
       <c r="DA4" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2281,12 +2291,15 @@
         <v>0.0</v>
       </c>
       <c r="DA5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2598,12 +2611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -2916,11 +2932,14 @@
       </c>
       <c r="DA7" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3232,12 +3251,15 @@
         <v>0.0</v>
       </c>
       <c r="DA8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3549,12 +3571,15 @@
         <v>0.0</v>
       </c>
       <c r="DA9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -3867,11 +3892,14 @@
       </c>
       <c r="DA10" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4184,11 +4212,14 @@
       </c>
       <c r="DA11" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4501,11 +4532,14 @@
       </c>
       <c r="DA12" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -4818,11 +4852,14 @@
       </c>
       <c r="DA13" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5135,11 +5172,14 @@
       </c>
       <c r="DA14" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5452,11 +5492,14 @@
       </c>
       <c r="DA15" t="n">
         <v>-6.0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -5769,11 +5812,14 @@
       </c>
       <c r="DA16" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6085,12 +6131,15 @@
         <v>0.0</v>
       </c>
       <c r="DA17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -6403,11 +6452,14 @@
       </c>
       <c r="DA18" t="n">
         <v>112.0</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>110.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -6720,11 +6772,14 @@
       </c>
       <c r="DA19" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -7036,12 +7091,15 @@
         <v>0.0</v>
       </c>
       <c r="DA20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -7353,12 +7411,15 @@
         <v>1.0</v>
       </c>
       <c r="DA21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB21" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -7671,11 +7732,14 @@
       </c>
       <c r="DA22" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -7988,11 +8052,14 @@
       </c>
       <c r="DA23" t="n">
         <v>-108.0</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>70.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -8305,11 +8372,14 @@
       </c>
       <c r="DA24" t="n">
         <v>33.0</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -8622,11 +8692,14 @@
       </c>
       <c r="DA25" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB25" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -8938,12 +9011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -9256,11 +9332,14 @@
       </c>
       <c r="DA27" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -9573,11 +9652,14 @@
       </c>
       <c r="DA28" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>81.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -9890,11 +9972,14 @@
       </c>
       <c r="DA29" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB29" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -10207,11 +10292,14 @@
       </c>
       <c r="DA30" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB30" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -10523,12 +10611,15 @@
         <v>1.0</v>
       </c>
       <c r="DA31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB31" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -10841,11 +10932,14 @@
       </c>
       <c r="DA32" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -11158,11 +11252,14 @@
       </c>
       <c r="DA33" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -11474,12 +11571,15 @@
         <v>0.0</v>
       </c>
       <c r="DA34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -11792,11 +11892,14 @@
       </c>
       <c r="DA35" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB35" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -12108,12 +12211,15 @@
         <v>0.0</v>
       </c>
       <c r="DA36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -12426,11 +12532,14 @@
       </c>
       <c r="DA37" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DB37" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -12743,11 +12852,14 @@
       </c>
       <c r="DA38" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB38" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -13059,12 +13171,15 @@
         <v>0.0</v>
       </c>
       <c r="DA39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -13377,11 +13492,14 @@
       </c>
       <c r="DA40" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB40" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -13694,11 +13812,14 @@
       </c>
       <c r="DA41" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB41" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -14011,11 +14132,14 @@
       </c>
       <c r="DA42" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB42" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -14327,12 +14451,15 @@
         <v>0.0</v>
       </c>
       <c r="DA43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB43" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -14644,12 +14771,15 @@
         <v>0.0</v>
       </c>
       <c r="DA44" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="DB44" t="n">
         <v>-1.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -14962,11 +15092,14 @@
       </c>
       <c r="DA45" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB45" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -15279,11 +15412,14 @@
       </c>
       <c r="DA46" t="n">
         <v>199.0</v>
+      </c>
+      <c r="DB46" t="n">
+        <v>119.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -15595,12 +15731,15 @@
         <v>0.0</v>
       </c>
       <c r="DA47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -15913,11 +16052,14 @@
       </c>
       <c r="DA48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB48" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -16230,11 +16372,14 @@
       </c>
       <c r="DA49" t="n">
         <v>30.0</v>
+      </c>
+      <c r="DB49" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -16546,12 +16691,15 @@
         <v>1.0</v>
       </c>
       <c r="DA50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -16863,12 +17011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB51" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -17181,11 +17332,14 @@
       </c>
       <c r="DA52" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -17498,11 +17652,14 @@
       </c>
       <c r="DA53" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB53" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -17814,12 +17971,15 @@
         <v>0.0</v>
       </c>
       <c r="DA54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -18132,11 +18292,14 @@
       </c>
       <c r="DA55" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -18449,11 +18612,14 @@
       </c>
       <c r="DA56" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB56" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -18765,12 +18931,15 @@
         <v>0.0</v>
       </c>
       <c r="DA57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB57" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -19083,11 +19252,14 @@
       </c>
       <c r="DA58" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB58" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -19399,12 +19571,15 @@
         <v>0.0</v>
       </c>
       <c r="DA59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB59" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -19717,11 +19892,14 @@
       </c>
       <c r="DA60" t="n">
         <v>189.0</v>
+      </c>
+      <c r="DB60" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -20033,12 +20211,15 @@
         <v>0.0</v>
       </c>
       <c r="DA61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -20351,11 +20532,14 @@
       </c>
       <c r="DA62" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB62" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -20667,12 +20851,15 @@
         <v>0.0</v>
       </c>
       <c r="DA63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB63" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -20985,11 +21172,14 @@
       </c>
       <c r="DA64" t="n">
         <v>269.0</v>
+      </c>
+      <c r="DB64" t="n">
+        <v>188.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -21301,12 +21491,15 @@
         <v>0.0</v>
       </c>
       <c r="DA65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -21619,11 +21812,14 @@
       </c>
       <c r="DA66" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB66" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -21936,11 +22132,14 @@
       </c>
       <c r="DA67" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB67" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -22252,12 +22451,15 @@
         <v>0.0</v>
       </c>
       <c r="DA68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -22570,11 +22772,14 @@
       </c>
       <c r="DA69" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB69" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -22887,11 +23092,14 @@
       </c>
       <c r="DA70" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB70" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -23204,11 +23412,14 @@
       </c>
       <c r="DA71" t="n">
         <v>171.0</v>
+      </c>
+      <c r="DB71" t="n">
+        <v>122.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -23521,11 +23732,14 @@
       </c>
       <c r="DA72" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB72" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -23838,11 +24052,14 @@
       </c>
       <c r="DA73" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DB73" t="n">
+        <v>9.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -24154,12 +24371,15 @@
         <v>0.0</v>
       </c>
       <c r="DA74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -24472,11 +24692,14 @@
       </c>
       <c r="DA75" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB75" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -24789,11 +25012,14 @@
       </c>
       <c r="DA76" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB76" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -25106,11 +25332,14 @@
       </c>
       <c r="DA77" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB77" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -25423,11 +25652,14 @@
       </c>
       <c r="DA78" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB78" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -25739,12 +25971,15 @@
         <v>0.0</v>
       </c>
       <c r="DA79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -26057,11 +26292,14 @@
       </c>
       <c r="DA80" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB80" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -26373,12 +26611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -26691,11 +26932,14 @@
       </c>
       <c r="DA82" t="n">
         <v>58.0</v>
+      </c>
+      <c r="DB82" t="n">
+        <v>109.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -27008,11 +27252,14 @@
       </c>
       <c r="DA83" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB83" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -27325,11 +27572,14 @@
       </c>
       <c r="DA84" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB84" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -27641,12 +27891,15 @@
         <v>2.0</v>
       </c>
       <c r="DA85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB85" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -27958,12 +28211,15 @@
         <v>0.0</v>
       </c>
       <c r="DA86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -28276,11 +28532,14 @@
       </c>
       <c r="DA87" t="n">
         <v>42.0</v>
+      </c>
+      <c r="DB87" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -28592,12 +28851,15 @@
         <v>0.0</v>
       </c>
       <c r="DA88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -28910,11 +29172,14 @@
       </c>
       <c r="DA89" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DB89" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -29227,11 +29492,14 @@
       </c>
       <c r="DA90" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB90" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -29543,12 +29811,15 @@
         <v>0.0</v>
       </c>
       <c r="DA91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -29861,11 +30132,14 @@
       </c>
       <c r="DA92" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DB92" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -30178,11 +30452,14 @@
       </c>
       <c r="DA93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB93" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -30494,12 +30771,15 @@
         <v>0.0</v>
       </c>
       <c r="DA94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -30812,11 +31092,14 @@
       </c>
       <c r="DA95" t="n">
         <v>76.0</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -31129,11 +31412,14 @@
       </c>
       <c r="DA96" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -31446,11 +31732,14 @@
       </c>
       <c r="DA97" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DB97" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -31762,12 +32051,15 @@
         <v>0.0</v>
       </c>
       <c r="DA98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -32079,12 +32371,15 @@
         <v>0.0</v>
       </c>
       <c r="DA99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -32396,12 +32691,15 @@
         <v>0.0</v>
       </c>
       <c r="DA100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -32714,11 +33012,14 @@
       </c>
       <c r="DA101" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB101" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -33030,12 +33331,15 @@
         <v>0.0</v>
       </c>
       <c r="DA102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -33348,11 +33652,14 @@
       </c>
       <c r="DA103" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB103" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -33664,12 +33971,15 @@
         <v>0.0</v>
       </c>
       <c r="DA104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -33982,11 +34292,14 @@
       </c>
       <c r="DA105" t="n">
         <v>19.0</v>
+      </c>
+      <c r="DB105" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -34298,12 +34611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA106" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB106" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -34616,11 +34932,14 @@
       </c>
       <c r="DA107" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -34933,11 +35252,14 @@
       </c>
       <c r="DA108" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB108" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -35249,12 +35571,15 @@
         <v>0.0</v>
       </c>
       <c r="DA109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -35567,11 +35892,14 @@
       </c>
       <c r="DA110" t="n">
         <v>53.0</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -35884,11 +36212,14 @@
       </c>
       <c r="DA111" t="n">
         <v>214.0</v>
+      </c>
+      <c r="DB111" t="n">
+        <v>256.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -36201,11 +36532,14 @@
       </c>
       <c r="DA112" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB112" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -36518,11 +36852,14 @@
       </c>
       <c r="DA113" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB113" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -36835,11 +37172,14 @@
       </c>
       <c r="DA114" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB114" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -37152,11 +37492,14 @@
       </c>
       <c r="DA115" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB115" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -37469,11 +37812,14 @@
       </c>
       <c r="DA116" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -37786,11 +38132,14 @@
       </c>
       <c r="DA117" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB117" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -38103,11 +38452,14 @@
       </c>
       <c r="DA118" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB118" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -38419,12 +38771,15 @@
         <v>0.0</v>
       </c>
       <c r="DA119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -38737,11 +39092,14 @@
       </c>
       <c r="DA120" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB120" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -39054,11 +39412,14 @@
       </c>
       <c r="DA121" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB121" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -39370,12 +39731,15 @@
         <v>0.0</v>
       </c>
       <c r="DA122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -39688,11 +40052,14 @@
       </c>
       <c r="DA123" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB123" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -40004,12 +40371,15 @@
         <v>8.0</v>
       </c>
       <c r="DA124" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="DB124" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -40321,12 +40691,15 @@
         <v>0.0</v>
       </c>
       <c r="DA125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB125" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -40638,12 +41011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -40955,12 +41331,15 @@
         <v>0.0</v>
       </c>
       <c r="DA127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB127" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -41273,11 +41652,14 @@
       </c>
       <c r="DA128" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB128" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -41590,11 +41972,14 @@
       </c>
       <c r="DA129" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DB129" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -41907,11 +42292,14 @@
       </c>
       <c r="DA130" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB130" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -42224,11 +42612,14 @@
       </c>
       <c r="DA131" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB131" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -42541,11 +42932,14 @@
       </c>
       <c r="DA132" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB132" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -42858,11 +43252,14 @@
       </c>
       <c r="DA133" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DB133" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -43174,12 +43571,15 @@
         <v>0.0</v>
       </c>
       <c r="DA134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -43491,12 +43891,15 @@
         <v>0.0</v>
       </c>
       <c r="DA135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -43809,11 +44212,14 @@
       </c>
       <c r="DA136" t="n">
         <v>12.0</v>
+      </c>
+      <c r="DB136" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -44126,11 +44532,14 @@
       </c>
       <c r="DA137" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB137" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -44442,12 +44851,15 @@
         <v>0.0</v>
       </c>
       <c r="DA138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -44759,12 +45171,15 @@
         <v>0.0</v>
       </c>
       <c r="DA139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB139" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -45077,11 +45492,14 @@
       </c>
       <c r="DA140" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB140" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -45393,12 +45811,15 @@
         <v>0.0</v>
       </c>
       <c r="DA141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -45711,11 +46132,14 @@
       </c>
       <c r="DA142" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DB142" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -46027,12 +46451,15 @@
         <v>0.0</v>
       </c>
       <c r="DA143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB143" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -46345,11 +46772,14 @@
       </c>
       <c r="DA144" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB144" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -46661,12 +47091,15 @@
         <v>0.0</v>
       </c>
       <c r="DA145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB145" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -46979,11 +47412,14 @@
       </c>
       <c r="DA146" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DB146" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -47296,11 +47732,14 @@
       </c>
       <c r="DA147" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DB147" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -47612,12 +48051,15 @@
         <v>0.0</v>
       </c>
       <c r="DA148" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="DB148" t="n">
         <v>2.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -47930,11 +48372,14 @@
       </c>
       <c r="DA149" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DB149" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -48247,11 +48692,14 @@
       </c>
       <c r="DA150" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB150" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -48564,11 +49012,14 @@
       </c>
       <c r="DA151" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB151" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -48881,11 +49332,14 @@
       </c>
       <c r="DA152" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB152" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -49198,11 +49652,14 @@
       </c>
       <c r="DA153" t="n">
         <v>9.0</v>
+      </c>
+      <c r="DB153" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -49514,12 +49971,15 @@
         <v>0.0</v>
       </c>
       <c r="DA154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -49831,12 +50291,15 @@
         <v>0.0</v>
       </c>
       <c r="DA155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -50148,12 +50611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -50466,11 +50932,14 @@
       </c>
       <c r="DA157" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB157" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -50782,12 +51251,15 @@
         <v>0.0</v>
       </c>
       <c r="DA158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -51100,11 +51572,14 @@
       </c>
       <c r="DA159" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB159" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -51417,11 +51892,14 @@
       </c>
       <c r="DA160" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB160" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -51734,11 +52212,14 @@
       </c>
       <c r="DA161" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB161" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -52051,11 +52532,14 @@
       </c>
       <c r="DA162" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB162" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -52367,12 +52851,15 @@
         <v>1.0</v>
       </c>
       <c r="DA163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB163" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -52684,12 +53171,15 @@
         <v>4.0</v>
       </c>
       <c r="DA164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB164" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -53001,12 +53491,15 @@
         <v>0.0</v>
       </c>
       <c r="DA165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -53319,11 +53812,14 @@
       </c>
       <c r="DA166" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB166" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -53636,11 +54132,14 @@
       </c>
       <c r="DA167" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB167" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -53952,12 +54451,15 @@
         <v>0.0</v>
       </c>
       <c r="DA168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -54269,12 +54771,15 @@
         <v>1.0</v>
       </c>
       <c r="DA169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB169" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -54586,12 +55091,15 @@
         <v>0.0</v>
       </c>
       <c r="DA170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -54903,12 +55411,15 @@
         <v>0.0</v>
       </c>
       <c r="DA171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -55221,11 +55732,14 @@
       </c>
       <c r="DA172" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB172" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -55538,11 +56052,14 @@
       </c>
       <c r="DA173" t="n">
         <v>50.0</v>
+      </c>
+      <c r="DB173" t="n">
+        <v>77.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -55855,11 +56372,14 @@
       </c>
       <c r="DA174" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB174" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -56172,11 +56692,14 @@
       </c>
       <c r="DA175" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DB175" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -56488,12 +57011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -56806,11 +57332,14 @@
       </c>
       <c r="DA177" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB177" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -57122,12 +57651,15 @@
         <v>0.0</v>
       </c>
       <c r="DA178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB178" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -57440,11 +57972,14 @@
       </c>
       <c r="DA179" t="n">
         <v>8.0</v>
+      </c>
+      <c r="DB179" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -57756,12 +58291,15 @@
         <v>0.0</v>
       </c>
       <c r="DA180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -58074,11 +58612,14 @@
       </c>
       <c r="DA181" t="n">
         <v>25.0</v>
+      </c>
+      <c r="DB181" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -58390,12 +58931,15 @@
         <v>0.0</v>
       </c>
       <c r="DA182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -58708,11 +59252,14 @@
       </c>
       <c r="DA183" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB183" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -59025,11 +59572,14 @@
       </c>
       <c r="DA184" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB184" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -59342,11 +59892,14 @@
       </c>
       <c r="DA185" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB185" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -59659,11 +60212,14 @@
       </c>
       <c r="DA186" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB186" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -59976,11 +60532,14 @@
       </c>
       <c r="DA187" t="n">
         <v>20.0</v>
+      </c>
+      <c r="DB187" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -60292,12 +60851,15 @@
         <v>0.0</v>
       </c>
       <c r="DA188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -60610,11 +61172,14 @@
       </c>
       <c r="DA189" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB189" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -60926,12 +61491,15 @@
         <v>0.0</v>
       </c>
       <c r="DA190" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB190" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -61243,12 +61811,15 @@
         <v>0.0</v>
       </c>
       <c r="DA191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -61561,11 +62132,14 @@
       </c>
       <c r="DA192" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DB192" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -61878,11 +62452,14 @@
       </c>
       <c r="DA193" t="n">
         <v>6.0</v>
+      </c>
+      <c r="DB193" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -62194,12 +62771,15 @@
         <v>0.0</v>
       </c>
       <c r="DA194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -62512,11 +63092,14 @@
       </c>
       <c r="DA195" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB195" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -62828,12 +63411,15 @@
         <v>0.0</v>
       </c>
       <c r="DA196" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB196" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -63146,11 +63732,14 @@
       </c>
       <c r="DA197" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -63463,11 +64052,14 @@
       </c>
       <c r="DA198" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB198" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -63780,11 +64372,14 @@
       </c>
       <c r="DA199" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB199" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -64096,12 +64691,15 @@
         <v>0.0</v>
       </c>
       <c r="DA200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -64413,12 +65011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB201" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -64731,11 +65332,14 @@
       </c>
       <c r="DA202" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB202" t="n">
+        <v>-3.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -65047,12 +65651,15 @@
         <v>0.0</v>
       </c>
       <c r="DA203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB203" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -65365,11 +65972,14 @@
       </c>
       <c r="DA204" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB204" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -65682,11 +66292,14 @@
       </c>
       <c r="DA205" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB205" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -65998,12 +66611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA206" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB206" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -66316,11 +66932,14 @@
       </c>
       <c r="DA207" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB207" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -66632,12 +67251,15 @@
         <v>0.0</v>
       </c>
       <c r="DA208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -66950,11 +67572,14 @@
       </c>
       <c r="DA209" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB209" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -67267,11 +67892,14 @@
       </c>
       <c r="DA210" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB210" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -67583,12 +68211,15 @@
         <v>0.0</v>
       </c>
       <c r="DA211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -67900,12 +68531,15 @@
         <v>1.0</v>
       </c>
       <c r="DA212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -68218,11 +68852,14 @@
       </c>
       <c r="DA213" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB213" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -68534,12 +69171,15 @@
         <v>0.0</v>
       </c>
       <c r="DA214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -68852,11 +69492,14 @@
       </c>
       <c r="DA215" t="n">
         <v>54.0</v>
+      </c>
+      <c r="DB215" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -69168,12 +69811,15 @@
         <v>0.0</v>
       </c>
       <c r="DA216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -69486,11 +70132,14 @@
       </c>
       <c r="DA217" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DB217" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -69802,12 +70451,15 @@
         <v>1.0</v>
       </c>
       <c r="DA218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB218" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -70120,11 +70772,14 @@
       </c>
       <c r="DA219" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DB219" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -70436,12 +71091,15 @@
         <v>0.0</v>
       </c>
       <c r="DA220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -70754,11 +71412,14 @@
       </c>
       <c r="DA221" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DB221" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -71071,11 +71732,14 @@
       </c>
       <c r="DA222" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB222" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -71388,11 +72052,14 @@
       </c>
       <c r="DA223" t="n">
         <v>240.0</v>
+      </c>
+      <c r="DB223" t="n">
+        <v>171.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -71705,11 +72372,14 @@
       </c>
       <c r="DA224" t="n">
         <v>22.0</v>
+      </c>
+      <c r="DB224" t="n">
+        <v>27.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -72021,12 +72691,15 @@
         <v>0.0</v>
       </c>
       <c r="DA225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -72338,12 +73011,15 @@
         <v>0.0</v>
       </c>
       <c r="DA226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -72655,12 +73331,15 @@
         <v>0.0</v>
       </c>
       <c r="DA227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -72973,11 +73652,14 @@
       </c>
       <c r="DA228" t="n">
         <v>17.0</v>
+      </c>
+      <c r="DB228" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -73290,11 +73972,14 @@
       </c>
       <c r="DA229" t="n">
         <v>16.0</v>
+      </c>
+      <c r="DB229" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -73606,12 +74291,15 @@
         <v>0.0</v>
       </c>
       <c r="DA230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -73923,12 +74611,15 @@
         <v>0.0</v>
       </c>
       <c r="DA231" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB231" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -74241,11 +74932,14 @@
       </c>
       <c r="DA232" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DB232" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -74558,11 +75252,14 @@
       </c>
       <c r="DA233" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DB233" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -74875,11 +75572,14 @@
       </c>
       <c r="DA234" t="n">
         <v>-7.0</v>
+      </c>
+      <c r="DB234" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -75191,12 +75891,15 @@
         <v>0.0</v>
       </c>
       <c r="DA235" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DB235" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -75508,12 +76211,15 @@
         <v>0.0</v>
       </c>
       <c r="DA236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -75826,11 +76532,14 @@
       </c>
       <c r="DA237" t="n">
         <v>21.0</v>
+      </c>
+      <c r="DB237" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -76142,12 +76851,15 @@
         <v>0.0</v>
       </c>
       <c r="DA238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -76460,11 +77172,14 @@
       </c>
       <c r="DA239" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB239" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -76777,11 +77492,14 @@
       </c>
       <c r="DA240" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB240" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -77094,11 +77812,14 @@
       </c>
       <c r="DA241" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB241" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -77411,11 +78132,14 @@
       </c>
       <c r="DA242" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DB242" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -77727,12 +78451,15 @@
         <v>0.0</v>
       </c>
       <c r="DA243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -78045,11 +78772,14 @@
       </c>
       <c r="DA244" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB244" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -78362,11 +79092,14 @@
       </c>
       <c r="DA245" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DB245" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -78678,12 +79411,15 @@
         <v>0.0</v>
       </c>
       <c r="DA246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -78995,12 +79731,15 @@
         <v>0.0</v>
       </c>
       <c r="DA247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -79313,11 +80052,14 @@
       </c>
       <c r="DA248" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB248" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -79630,11 +80372,14 @@
       </c>
       <c r="DA249" t="n">
         <v>41.0</v>
+      </c>
+      <c r="DB249" t="n">
+        <v>46.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -79947,11 +80692,14 @@
       </c>
       <c r="DA250" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DB250" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -80264,11 +81012,14 @@
       </c>
       <c r="DA251" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB251" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -80581,11 +81332,14 @@
       </c>
       <c r="DA252" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DB252" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -80898,11 +81652,14 @@
       </c>
       <c r="DA253" t="n">
         <v>18.0</v>
+      </c>
+      <c r="DB253" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -81214,12 +81971,15 @@
         <v>0.0</v>
       </c>
       <c r="DA254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DB254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -81532,11 +82292,14 @@
       </c>
       <c r="DA255" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB255" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -81849,11 +82612,14 @@
       </c>
       <c r="DA256" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DB256" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -82166,11 +82932,14 @@
       </c>
       <c r="DA257" t="n">
         <v>10.0</v>
+      </c>
+      <c r="DB257" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -82276,10 +83045,11 @@
       <c r="CY258"/>
       <c r="CZ258"/>
       <c r="DA258"/>
+      <c r="DB258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -82385,6 +83155,7 @@
       <c r="CY259"/>
       <c r="CZ259"/>
       <c r="DA259"/>
+      <c r="DB259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
